--- a/Physics/Physics 2/Lab 9/data.xlsx
+++ b/Physics/Physics 2/Lab 9/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coyne\College Work\Physics\Physics 2\Lab 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\College-Work\Physics\Physics 2\Lab 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C2ADF-8AFC-4694-8019-A1FFD0D9663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF0E77-D515-4794-9A50-69C13DCA977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{C8439DF3-7561-44E6-88AB-D013922480F0}"/>
+    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{C8439DF3-7561-44E6-88AB-D013922480F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>C (microF)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>R(Ohm)</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
     <t>tau</t>
   </si>
   <si>
     <t>tau^-1</t>
   </si>
   <si>
-    <t>L (mH)</t>
-  </si>
-  <si>
     <t>R (Ohm)</t>
   </si>
   <si>
@@ -66,6 +54,30 @@
   </si>
   <si>
     <t>tau^-1 predicted</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>sigmaR</t>
+  </si>
+  <si>
+    <t>sigmaC</t>
+  </si>
+  <si>
+    <t>C (F)</t>
+  </si>
+  <si>
+    <t>sigmatau</t>
+  </si>
+  <si>
+    <t>L (H)</t>
+  </si>
+  <si>
+    <t>tauexperimental</t>
   </si>
 </sst>
 </file>
@@ -417,41 +429,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED0AFD0-9DE1-4CF3-92AB-4DCF121A0730}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>330</v>
+        <f>330/1000000</f>
+        <v>3.3E-4</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -465,10 +493,27 @@
       <c r="F2">
         <v>27.486999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <f>C2*0.05</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>0.2*B2</f>
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="I2">
+        <f>SQRT((D2-B2*(C2+G2))^2+(D2-(B2+H2)*C2)^2)</f>
+        <v>6.8031242822691341E-3</v>
+      </c>
+      <c r="J2">
+        <f>1/F2</f>
+        <v>3.6380834576345181E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>100</v>
+        <f>100/1000000</f>
+        <v>1E-4</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -482,10 +527,27 @@
       <c r="F3">
         <v>924</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">C3*0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">0.2*B3</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="2">SQRT((D3-B3*(C3+G3))^2+(D3-(B3+H3)*C3)^2)</f>
+        <v>2.0615528128088315E-4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="3">1/F3</f>
+        <v>1.0822510822510823E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>100</v>
+        <f>100/1000000</f>
+        <v>1E-4</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -497,27 +559,43 @@
         <v>303</v>
       </c>
       <c r="F4">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>281</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>6.8031242822691408E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>3.5587188612099642E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8.2000000000000007E-3</v>
       </c>
@@ -533,8 +611,20 @@
       <c r="F6">
         <v>12800</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="I6">
+        <f>D6-B6/(C6+G6)</f>
+        <v>2.3695526695526666E-5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>7.8125000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8.2000000000000007E-3</v>
       </c>
@@ -550,8 +640,20 @@
       <c r="F7">
         <v>4840</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I8" si="4">D7-B7/(C7+G7)</f>
+        <v>1.0290536467751635E-5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>2.0661157024793388E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8.2000000000000007E-3</v>
       </c>
@@ -566,6 +668,18 @@
       </c>
       <c r="F8">
         <v>1970</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>3.6711379387435701E-6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>5.0761421319796957E-4</v>
       </c>
     </row>
   </sheetData>
